--- a/xls-sheetjs/files/simple.xlsx
+++ b/xls-sheetjs/files/simple.xlsx
@@ -397,38 +397,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>name</v>
+        <v>ID Сервиса</v>
       </c>
       <c r="B1" t="str">
-        <v>surname</v>
+        <v>Название сервиса</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Статус</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Дубликаты</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Описание ошибки</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Изменения</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Vasya</v>
+        <v>123213</v>
       </c>
       <c r="B2" t="str">
         <v>Batareykin</v>
+      </c>
+      <c r="C2" t="str">
+        <v>cool</v>
+      </c>
+      <c r="D2" t="str">
+        <v>nope</v>
+      </c>
+      <c r="E2" t="str">
+        <v>very bad</v>
+      </c>
+      <c r="F2" t="str">
+        <v>field1,field2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Petya</v>
+        <v>wew32324</v>
       </c>
       <c r="B3" t="str">
-        <v>Kryshkin</v>
+        <v>Batareykin1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>cool1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>nope1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>very bad1</v>
+      </c>
+      <c r="F3" t="str">
+        <v>field11,field21</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>